--- a/biology/Zoologie/Hasarinella_berlandi/Hasarinella_berlandi.xlsx
+++ b/biology/Zoologie/Hasarinella_berlandi/Hasarinella_berlandi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hasarinella berlandi est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hasarinella berlandi est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Tanzanie[1]. Elle se rencontre vers Kibonoto.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Tanzanie. Elle se rencontre vers Kibonoto.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle décrit par Wesołowska en 2012 mesure 3,0 mm de long sur 2,4 mm et l'abdomen 3,4 mm de long et la carapace de la femelle  mesure 2,4 mm de long sur 1,8 mm et l'abdomen 2,9 mm de long[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle décrit par Wesołowska en 2012 mesure 3,0 mm de long sur 2,4 mm et l'abdomen 3,4 mm de long et la carapace de la femelle  mesure 2,4 mm de long sur 1,8 mm et l'abdomen 2,9 mm de long.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Lucien Berland[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Lucien Berland.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lessert, 1925 : Araignées du Kilimandjaro et du Merou (suite). 5. Salticidae. Revue suisse de Zoologie, vol. 31, p. 429-528 (texte intégral).</t>
         </is>
